--- a/Cafiem/2017_2018/försäkringar/försäkringar.xlsx
+++ b/Cafiem/2017_2018/försäkringar/försäkringar.xlsx
@@ -1706,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1866,70 +1866,80 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>200</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C15" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G15" s="2">
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>200</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="12"/>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
